--- a/BTTuan5_1150080160_LeThanhTinh.xlsx
+++ b/BTTuan5_1150080160_LeThanhTinh.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Bai4" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="291">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -202,27 +202,12 @@
     <t>80 euro</t>
   </si>
   <si>
-    <t>Female – 145</t>
-  </si>
-  <si>
     <t>TC07</t>
   </si>
   <si>
-    <t>Tuổi âm</t>
-  </si>
-  <si>
-    <t>Male – -1</t>
-  </si>
-  <si>
     <t>TC08</t>
   </si>
   <si>
-    <t>Tuổi vượt max</t>
-  </si>
-  <si>
-    <t>Female – 146</t>
-  </si>
-  <si>
     <t>Age &lt; 0           → Invalid</t>
   </si>
   <si>
@@ -277,39 +262,21 @@
     <t>Male – biên dưới</t>
   </si>
   <si>
-    <t>Male – trong khoảng 1</t>
-  </si>
-  <si>
     <t>Male – 35</t>
   </si>
   <si>
-    <t>Male – biên chuyển</t>
-  </si>
-  <si>
     <t>Male – 36</t>
   </si>
   <si>
-    <t>Male – trong khoảng 2</t>
-  </si>
-  <si>
     <t>Male – 50</t>
   </si>
   <si>
-    <t>Male – biên trên</t>
-  </si>
-  <si>
     <t>Male – 51</t>
   </si>
   <si>
     <t>TC09</t>
   </si>
   <si>
-    <t>Male – max hợp lệ</t>
-  </si>
-  <si>
-    <t>Male – 145</t>
-  </si>
-  <si>
     <t>TC10</t>
   </si>
   <si>
@@ -322,18 +289,12 @@
     <t>TC11</t>
   </si>
   <si>
-    <t>Female – trong khoảng 1</t>
-  </si>
-  <si>
     <t>Female – 35</t>
   </si>
   <si>
     <t>TC12</t>
   </si>
   <si>
-    <t>Female – biên chuyển</t>
-  </si>
-  <si>
     <t>Female – 36</t>
   </si>
   <si>
@@ -343,63 +304,12 @@
     <t>TC13</t>
   </si>
   <si>
-    <t>Female – trong khoảng 2</t>
-  </si>
-  <si>
-    <t>Female – 50</t>
-  </si>
-  <si>
-    <t>TC14</t>
-  </si>
-  <si>
-    <t>Female – biên trên</t>
-  </si>
-  <si>
     <t>Female – 51</t>
   </si>
   <si>
-    <t>TC15</t>
-  </si>
-  <si>
-    <t>Female – max hợp lệ</t>
-  </si>
-  <si>
-    <t>TC16</t>
-  </si>
-  <si>
     <t>Male – (-1)</t>
   </si>
   <si>
-    <t>TC17</t>
-  </si>
-  <si>
-    <t>TC18</t>
-  </si>
-  <si>
-    <t>Không nhập tuổi</t>
-  </si>
-  <si>
-    <t>Male – empty</t>
-  </si>
-  <si>
-    <t>TC19</t>
-  </si>
-  <si>
-    <t>Tuổi không phải số</t>
-  </si>
-  <si>
-    <t>Female – abc</t>
-  </si>
-  <si>
-    <t>TC20</t>
-  </si>
-  <si>
-    <t>Không chọn giới tính</t>
-  </si>
-  <si>
-    <t>Age = 30</t>
-  </si>
-  <si>
     <t>Application is launched successfully</t>
   </si>
   <si>
@@ -505,9 +415,6 @@
     <t>TC04-08</t>
   </si>
   <si>
-    <t>Kiểm tra Male – biên trên</t>
-  </si>
-  <si>
     <t>TC04-09</t>
   </si>
   <si>
@@ -538,36 +445,15 @@
     <t>TC04-12</t>
   </si>
   <si>
-    <t>Kiểm tra Female – biên trên nhóm 2</t>
-  </si>
-  <si>
     <t>TC04-13</t>
   </si>
   <si>
     <t>Kiểm tra Female – biên dưới nhóm 3</t>
   </si>
   <si>
-    <t>TC04-14</t>
-  </si>
-  <si>
-    <t>Kiểm tra Female – biên trên</t>
-  </si>
-  <si>
-    <t>TC04-15</t>
-  </si>
-  <si>
-    <t>Kiểm tra tuổi âm</t>
-  </si>
-  <si>
     <t>Thông báo Invalid age</t>
   </si>
   <si>
-    <t>TC04-16</t>
-  </si>
-  <si>
-    <t>Kiểm tra tuổi vượt max</t>
-  </si>
-  <si>
     <t>Mục đích</t>
   </si>
   <si>
@@ -884,9 +770,6 @@
   </si>
   <si>
     <t>Tách logic tính toán ra khỏi Form để thuận tiện mở rộng và kiểm thử.</t>
-  </si>
-  <si>
-    <t>Bổ sung thêm Unit Test cho các trường hợp nhập sai định dạng (chuỗi, ký tự đặc biệt).</t>
   </si>
   <si>
     <t>Cải thiện thông báo lỗi chi tiết hơn cho người dùng.</t>
@@ -1093,6 +976,36 @@
   </si>
   <si>
     <t>Báo cáo này trình bày kết quả kiểm thử cho Bài 5 – Form Đăng Ký Tài Khoản Khách Hàng của ứng dụng Windows Forms.</t>
+  </si>
+  <si>
+    <t>Male – biên trên nhóm 1</t>
+  </si>
+  <si>
+    <t>Male – biên dưới nhóm 2</t>
+  </si>
+  <si>
+    <t>Male – biên trên nhóm 2</t>
+  </si>
+  <si>
+    <t>Male – biên dưới nhóm 3</t>
+  </si>
+  <si>
+    <t>Female – biên trên nhóm 1</t>
+  </si>
+  <si>
+    <t>Female – biên dưới nhóm 2</t>
+  </si>
+  <si>
+    <t>Female – biên dưới nhóm 3</t>
+  </si>
+  <si>
+    <t>Tuổi không hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm tra Child – vượt biên</t>
+  </si>
+  <si>
+    <t>Kiểm tra tuổi không hợp lệ</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1356,6 +1269,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1375,6 +1294,9 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1400,13 +1322,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>174171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1438,13 +1360,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2416629</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>21772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>631372</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>8503</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1475,15 +1397,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>642259</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
+      <xdr:colOff>620488</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>21774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>471158</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
+      <xdr:colOff>449387</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1500,7 +1422,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6727373" y="10831288"/>
+          <a:off x="6705602" y="10929260"/>
           <a:ext cx="3486499" cy="2079170"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1513,15 +1435,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>489859</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
+      <xdr:colOff>500745</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1902120</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>185055</xdr:rowOff>
+      <xdr:colOff>1913006</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>130626</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1538,7 +1460,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10232573" y="10853058"/>
+          <a:off x="10243459" y="8969829"/>
           <a:ext cx="3382576" cy="2068283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1552,14 +1474,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2416628</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>105287</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>116173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1590,13 +1512,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>10888</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609602</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>65314</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1628,13 +1550,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>566059</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>163288</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1665,15 +1587,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>315689</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>206828</xdr:rowOff>
+      <xdr:colOff>391889</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1690,8 +1612,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10058403" y="12714514"/>
+          <a:off x="10134603" y="10580914"/>
           <a:ext cx="3722912" cy="2068286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>100395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>627434</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>229143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="18508138"/>
+          <a:ext cx="8149463" cy="2937262"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2123,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J138"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2252,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -2261,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -2272,7 +2232,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -2281,7 +2241,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -2292,7 +2252,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -2301,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -2312,7 +2272,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
@@ -2518,12 +2478,12 @@
     <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="26"/>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>24</v>
@@ -2535,7 +2495,7 @@
         <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2543,16 +2503,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2560,16 +2520,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2577,16 +2537,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2594,7 +2554,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>53</v>
@@ -2603,7 +2563,7 @@
         <v>54</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2611,16 +2571,16 @@
         <v>1</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D32" s="30" t="s">
         <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2628,78 +2588,78 @@
         <v>31</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>85</v>
+        <v>282</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D33" s="30" t="s">
         <v>55</v>
       </c>
       <c r="F33" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>87</v>
+        <v>283</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D34" s="30" t="s">
         <v>55</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>89</v>
+        <v>284</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D35" s="30" t="s">
         <v>56</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I35" s="26"/>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I36" s="26"/>
     </row>
     <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D37" s="30" t="s">
         <v>57</v>
@@ -2708,208 +2668,274 @@
     </row>
     <row r="38" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>98</v>
+        <v>286</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="I38" s="27"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="30" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>101</v>
+        <v>287</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="I39" s="27"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="27"/>
+    </row>
+    <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="27"/>
+    </row>
+    <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="27"/>
+    </row>
+    <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="27"/>
+    </row>
+    <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="F58" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="G58" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="I40" s="27"/>
-    </row>
-    <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+    </row>
+    <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B59" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C59" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I41" s="27"/>
-    </row>
-    <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
+      <c r="D59" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="F59" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I42" s="27"/>
-    </row>
-    <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
+      <c r="G59" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="30" t="s">
+      <c r="B60" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="27"/>
-    </row>
-    <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
+      <c r="C60" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
+      <c r="B61" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="C62" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="D62" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E62" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="30" t="s">
+      <c r="F62" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
+      <c r="C63" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="C64" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="F64" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G64" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="65" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="F65" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="G65" s="29" t="s">
-        <v>136</v>
+      <c r="A65" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G65" s="30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="30" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D66" s="30" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E66" s="30" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F66" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G66" s="30" t="s">
         <v>13</v>
@@ -2917,22 +2943,22 @@
     </row>
     <row r="67" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="30" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D67" s="30" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F67" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G67" s="30" t="s">
         <v>13</v>
@@ -2940,22 +2966,22 @@
     </row>
     <row r="68" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="30" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B68" s="30" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F68" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G68" s="30" t="s">
         <v>13</v>
@@ -2963,22 +2989,22 @@
     </row>
     <row r="69" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="30" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B69" s="30" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D69" s="30" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F69" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G69" s="30" t="s">
         <v>13</v>
@@ -2986,22 +3012,22 @@
     </row>
     <row r="70" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="30" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D70" s="30" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G70" s="30" t="s">
         <v>13</v>
@@ -3009,476 +3035,288 @@
     </row>
     <row r="71" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="30" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>154</v>
+        <v>290</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G71" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G72" s="30" t="s">
-        <v>13</v>
-      </c>
+      <c r="A72" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
     </row>
     <row r="73" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F73" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G73" s="30" t="s">
-        <v>13</v>
-      </c>
+      <c r="A73" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
     </row>
     <row r="74" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="F74" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G74" s="30" t="s">
-        <v>13</v>
-      </c>
+      <c r="A74" s="41" t="s">
+        <v>250</v>
+      </c>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
     </row>
     <row r="75" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B75" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="F75" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G75" s="30" t="s">
-        <v>13</v>
-      </c>
+      <c r="A75" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
     </row>
     <row r="76" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="B76" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="F76" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G76" s="30" t="s">
-        <v>13</v>
-      </c>
+      <c r="A76" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
     </row>
     <row r="77" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E77" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="F77" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G77" s="30" t="s">
-        <v>13</v>
-      </c>
+      <c r="A77" s="42" t="s">
+        <v>223</v>
+      </c>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
     </row>
     <row r="78" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="B78" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F78" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G78" s="30" t="s">
-        <v>13</v>
-      </c>
+      <c r="A78" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
     </row>
     <row r="79" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B79" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E79" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="F79" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G79" s="30" t="s">
-        <v>13</v>
-      </c>
+      <c r="A79" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="B80" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E80" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="F80" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G80" s="30" t="s">
-        <v>13</v>
-      </c>
+      <c r="A80" s="42" t="s">
+        <v>226</v>
+      </c>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="B81" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="F81" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="G81" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="25.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="38" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="25" t="s">
-        <v>258</v>
+      <c r="A81" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+    </row>
+    <row r="82" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="42" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="42" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="42" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="39" t="s">
-        <v>289</v>
+      <c r="A87" s="42" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="39" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="40" t="s">
-        <v>260</v>
+      <c r="A88" s="42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="25" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="40" t="s">
-        <v>261</v>
+      <c r="A90" s="41" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="40" t="s">
-        <v>262</v>
+      <c r="A91" s="42" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="39" t="s">
-        <v>263</v>
+      <c r="A92" s="42" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="40" t="s">
-        <v>264</v>
+      <c r="A93" s="42" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="40" t="s">
-        <v>265</v>
+      <c r="A94" s="42" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A95" s="25" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="40" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="40" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="40" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="40" t="s">
-        <v>293</v>
+      <c r="A96" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B96" s="29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B97" s="30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="B98" s="30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B99" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="40" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="40" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A102" s="25" t="s">
-        <v>267</v>
-      </c>
+      <c r="A100" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B100" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A102" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="B102" s="33"/>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="39" t="s">
-        <v>296</v>
-      </c>
+      <c r="A103" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="B103" s="34"/>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="40" t="s">
-        <v>268</v>
-      </c>
+      <c r="A104" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B104" s="34"/>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="40" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="40" t="s">
-        <v>270</v>
-      </c>
+      <c r="A105" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105" s="34"/>
+    </row>
+    <row r="106" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A106" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="B106" s="44"/>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="40" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A108" s="25" t="s">
-        <v>272</v>
+      <c r="A107" s="26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="26" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="B109" s="29" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="B110" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="B111" s="30">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="B112" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="B113" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A114" s="25" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A115" s="37" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="26" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="26" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A119" s="37" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="26" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="26" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="26" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B141" s="17"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" s="18"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" s="18"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" s="18"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="36"/>
+      <c r="A109" s="26"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="17"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="18"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="18"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="18"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="38">
@@ -3531,8 +3369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3545,19 +3383,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>257</v>
+      <c r="A1" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -3565,42 +3403,42 @@
         <v>0</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>184</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G23" s="30" t="s">
         <v>13</v>
@@ -3608,22 +3446,22 @@
     </row>
     <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G24" s="30" t="s">
         <v>13</v>
@@ -3631,22 +3469,22 @@
     </row>
     <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>13</v>
@@ -3654,22 +3492,22 @@
     </row>
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="F26" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G26" s="30" t="s">
         <v>13</v>
@@ -3677,22 +3515,22 @@
     </row>
     <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G27" s="30" t="s">
         <v>13</v>
@@ -3700,22 +3538,22 @@
     </row>
     <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>13</v>
@@ -3723,22 +3561,22 @@
     </row>
     <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>13</v>
@@ -3746,560 +3584,560 @@
     </row>
     <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
-        <v>212</v>
+      <c r="A35" s="35" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="35" t="s">
-        <v>297</v>
+      <c r="A107" s="37" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A108" s="25" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="39" t="s">
-        <v>319</v>
+      <c r="A109" s="41" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" s="26" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" s="26" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="26" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" s="26" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" s="26" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A117" s="25" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="40" t="s">
-        <v>312</v>
+      <c r="A118" s="42" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="40" t="s">
-        <v>313</v>
+      <c r="A119" s="42" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="40" t="s">
-        <v>314</v>
+      <c r="A120" s="42" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="40" t="s">
-        <v>315</v>
+      <c r="A121" s="42" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="40" t="s">
-        <v>316</v>
+      <c r="A122" s="42" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="40" t="s">
-        <v>317</v>
+      <c r="A123" s="42" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="40" t="s">
-        <v>318</v>
+      <c r="A124" s="42" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A125" s="25" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>302</v>
+        <v>263</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" s="26" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" s="26" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="26" t="s">
-        <v>303</v>
+        <v>264</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="26" t="s">
-        <v>304</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="26" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A132" s="25" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="B134" s="17" t="s">
-        <v>274</v>
+      <c r="A134" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B134" s="29" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A135" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="B135" s="18">
-        <v>15</v>
+      <c r="A135" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B135" s="30">
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="B136" s="18">
-        <v>15</v>
+      <c r="A136" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="B136" s="30">
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A137" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B137" s="18">
+      <c r="A137" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B137" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B138" s="36">
+      <c r="A138" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B138" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A141" s="25" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A142" s="37" t="s">
-        <v>280</v>
+      <c r="A142" s="39" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="26" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="26" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" s="26" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A146" s="37" t="s">
-        <v>284</v>
+      <c r="A146" s="39" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" s="26" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" s="26" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" s="26" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.3">
@@ -4315,7 +4153,7 @@
       <c r="B170" s="18"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B171" s="36"/>
+      <c r="B171" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
